--- a/csharp2/results.xlsx
+++ b/csharp2/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\clovett\primes\csharp2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B7709E-5921-444E-A377-C963A535D729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA184652-8C61-45D0-A3CE-1CD686FE4824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1755" yWindow="2145" windowWidth="25110" windowHeight="14385" xr2:uid="{AF12124C-4EFC-4AA6-B744-AB748D3A4AB0}"/>
   </bookViews>
@@ -1488,7 +1488,7 @@
   <dimension ref="C2:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1529,7 +1529,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <f>D4/D3</f>
+        <f t="shared" ref="E4:E9" si="0">D4/D3</f>
         <v>2</v>
       </c>
       <c r="F4">
@@ -1544,7 +1544,7 @@
         <v>13</v>
       </c>
       <c r="E5">
-        <f>D5/D4</f>
+        <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
       <c r="F5">
@@ -1559,7 +1559,7 @@
         <v>195</v>
       </c>
       <c r="E6">
-        <f>D6/D5</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="F6">
@@ -1574,7 +1574,7 @@
         <v>2508</v>
       </c>
       <c r="E7">
-        <f>D7/D6</f>
+        <f t="shared" si="0"/>
         <v>12.861538461538462</v>
       </c>
       <c r="F7">
@@ -1589,7 +1589,7 @@
         <v>32244</v>
       </c>
       <c r="E8">
-        <f>D8/D7</f>
+        <f t="shared" si="0"/>
         <v>12.85645933014354</v>
       </c>
       <c r="F8">
@@ -1605,7 +1605,7 @@
         <v>436176</v>
       </c>
       <c r="E9">
-        <f>D9/D8</f>
+        <f t="shared" si="0"/>
         <v>13.527353926311871</v>
       </c>
       <c r="F9">

--- a/csharp2/results.xlsx
+++ b/csharp2/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\clovett\primes\csharp2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA184652-8C61-45D0-A3CE-1CD686FE4824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF8DB4D-B012-433E-B9A1-CABAA8A7641E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1755" yWindow="2145" windowWidth="25110" windowHeight="14385" xr2:uid="{AF12124C-4EFC-4AA6-B744-AB748D3A4AB0}"/>
+    <workbookView xWindow="4110" yWindow="1560" windowWidth="25110" windowHeight="17010" xr2:uid="{AF12124C-4EFC-4AA6-B744-AB748D3A4AB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,18 +36,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>max</t>
-  </si>
-  <si>
-    <t>ms</t>
   </si>
   <si>
     <t>rate</t>
   </si>
   <si>
     <t>primes</t>
+  </si>
+  <si>
+    <t>primes ms</t>
+  </si>
+  <si>
+    <t>goldbach ms</t>
   </si>
 </sst>
 </file>
@@ -277,7 +280,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ms</c:v>
+                  <c:v>primes ms</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1485,10 +1488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78BD806F-8A9A-4A1F-A352-E2CBB230F632}">
-  <dimension ref="C2:F9"/>
+  <dimension ref="C2:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1496,21 +1499,24 @@
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
-        <v>3</v>
+      <c r="G2" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C3">
         <v>1000</v>
       </c>
@@ -1520,8 +1526,11 @@
       <c r="F3">
         <v>168</v>
       </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C4">
         <v>10000</v>
       </c>
@@ -1535,8 +1544,11 @@
       <c r="F4">
         <v>1229</v>
       </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>100000</v>
       </c>
@@ -1550,8 +1562,11 @@
       <c r="F5">
         <v>9592</v>
       </c>
+      <c r="G5">
+        <v>31</v>
+      </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>1000000</v>
       </c>
@@ -1565,8 +1580,11 @@
       <c r="F6">
         <v>78498</v>
       </c>
+      <c r="G6">
+        <v>241</v>
+      </c>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>10000000</v>
       </c>
@@ -1580,8 +1598,11 @@
       <c r="F7">
         <v>664579</v>
       </c>
+      <c r="G7">
+        <v>3048</v>
+      </c>
     </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>100000000</v>
       </c>
@@ -1596,7 +1617,7 @@
         <v>5761455</v>
       </c>
     </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C9">
         <f>C8*10</f>
         <v>1000000000</v>
